--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/ILLINOIS_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/ILLINOIS_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1864"/>
+  <dimension ref="A1:D1858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C34">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C38">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C45">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C50">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C68">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C74">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C82">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C128">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C131">
@@ -2323,7 +2323,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C149">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C150">
@@ -2427,7 +2427,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C157">
@@ -2744,7 +2744,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C181">
@@ -2957,7 +2957,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C197">
@@ -2983,7 +2983,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2995,7 +2995,7 @@
         <v>613</v>
       </c>
       <c r="D199">
-        <v>0.009044766429604273</v>
+        <v>0.009044766429604272</v>
       </c>
     </row>
     <row r="200">
@@ -3040,7 +3040,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C203">
@@ -3240,7 +3240,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C218">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C232">
@@ -3474,7 +3474,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C236">
@@ -3565,7 +3565,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C243">
@@ -3578,7 +3578,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C244">
@@ -3591,7 +3591,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C245">
@@ -3721,12 +3721,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C255">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C259">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C260">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C266">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C273">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C278">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C285">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C293">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C294">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C310">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C324">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C325">
@@ -4649,7 +4649,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C326">
@@ -4675,7 +4675,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C328">
@@ -4701,7 +4701,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C330">
@@ -4831,7 +4831,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C340">
@@ -4974,7 +4974,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C351">
@@ -5052,7 +5052,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C357">
@@ -5065,7 +5065,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C358">
@@ -5078,7 +5078,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C359">
@@ -5091,7 +5091,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C360">
@@ -5265,7 +5265,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C373">
@@ -5278,7 +5278,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C374">
@@ -5291,7 +5291,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C375">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C383">
@@ -5447,7 +5447,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C387">
@@ -5551,7 +5551,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C395">
@@ -5603,7 +5603,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C399">
@@ -5629,7 +5629,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C401">
@@ -5655,7 +5655,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C403">
@@ -5681,7 +5681,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C405">
@@ -5707,7 +5707,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C407">
@@ -5772,7 +5772,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C412">
@@ -5844,7 +5844,7 @@
         <v>6532</v>
       </c>
       <c r="D417">
-        <v>0.09637914244400507</v>
+        <v>0.09637914244400508</v>
       </c>
     </row>
     <row r="418">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C418">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C420">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C421">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C425">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C426">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C429">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C432">
@@ -6050,7 +6050,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C433">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C434">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C435">
@@ -6141,7 +6141,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C440">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C441">
@@ -6206,7 +6206,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C445">
@@ -6219,7 +6219,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C446">
@@ -6297,7 +6297,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C452">
@@ -6310,7 +6310,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C453">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C455">
@@ -6349,7 +6349,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C456">
@@ -6375,7 +6375,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C458">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C461">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C474">
@@ -6609,7 +6609,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C476">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C478">
@@ -6661,7 +6661,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C480">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C484">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C485">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C497">
@@ -6965,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C503">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C504">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C510">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C516">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C520">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C523">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C529">
@@ -7316,7 +7316,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C530">
@@ -7329,7 +7329,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C531">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C532">
@@ -7368,7 +7368,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C534">
@@ -7381,7 +7381,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C535">
@@ -7394,7 +7394,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C536">
@@ -7420,7 +7420,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C538">
@@ -7498,7 +7498,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C544">
@@ -7511,7 +7511,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C545">
@@ -7563,7 +7563,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C549">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C551">
@@ -7602,7 +7602,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C552">
@@ -7641,7 +7641,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C555">
@@ -7758,7 +7758,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C564">
@@ -7771,7 +7771,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C565">
@@ -7784,7 +7784,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C566">
@@ -7810,7 +7810,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C568">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C573">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C574">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C579">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C582">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C584">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C594">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C595">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C603">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C610">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C611">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C612">
@@ -8433,13 +8433,13 @@
         <v>64</v>
       </c>
       <c r="D615">
-        <v>0.0009443149290288311</v>
+        <v>0.0009443149290288312</v>
       </c>
     </row>
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C616">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C622">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C623">
@@ -8634,7 +8634,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C631">
@@ -8693,13 +8693,13 @@
         <v>63</v>
       </c>
       <c r="D635">
-        <v>0.0009295600082627557</v>
+        <v>0.0009295600082627556</v>
       </c>
     </row>
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C636">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C637">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C639">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C640">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C644">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C645">
@@ -8829,7 +8829,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C646">
@@ -8842,7 +8842,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C647">
@@ -8881,7 +8881,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C650">
@@ -8894,7 +8894,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C651">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C653">
@@ -8959,7 +8959,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C656">
@@ -8972,7 +8972,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C657">
@@ -9011,7 +9011,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C660">
@@ -9024,7 +9024,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C661">
@@ -9044,7 +9044,7 @@
         <v>63</v>
       </c>
       <c r="D662">
-        <v>0.0009295600082627557</v>
+        <v>0.0009295600082627556</v>
       </c>
     </row>
     <row r="663">
@@ -9167,7 +9167,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C672">
@@ -9180,7 +9180,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C673">
@@ -9193,7 +9193,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C674">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C675">
@@ -9271,7 +9271,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C680">
@@ -9284,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C681">
@@ -9323,7 +9323,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C684">
@@ -9336,7 +9336,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C685">
@@ -9349,7 +9349,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C686">
@@ -9679,7 +9679,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C711">
@@ -9705,7 +9705,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C713">
@@ -10576,7 +10576,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C780">
@@ -10919,7 +10919,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C806">
@@ -11023,7 +11023,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C814">
@@ -11075,7 +11075,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C818">
@@ -11153,7 +11153,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C824">
@@ -11179,7 +11179,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C826">
@@ -11283,7 +11283,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C834">
@@ -11340,7 +11340,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C838">
@@ -11366,7 +11366,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C840">
@@ -11457,7 +11457,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C847">
@@ -11657,7 +11657,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C862">
@@ -11852,7 +11852,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C877">
@@ -11943,7 +11943,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C884">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C891">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C897">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C902">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C903">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C904">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C908">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C911">
@@ -12312,7 +12312,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C912">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C913">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C914">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C915">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C916">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C917">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C918">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C919">
@@ -12429,7 +12429,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C921">
@@ -12442,7 +12442,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C922">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C929">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C930">
@@ -12572,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C932">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C934">
@@ -12611,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C935">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C938">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C940">
@@ -12689,7 +12689,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C941">
@@ -12702,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C942">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C944">
@@ -12936,7 +12936,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C960">
@@ -12962,7 +12962,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C962">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C975">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C978">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C982">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C999">
@@ -13625,7 +13625,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1013">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1014">
@@ -13651,7 +13651,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1015">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1041">
@@ -14145,7 +14145,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1053">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1055">
@@ -14327,7 +14327,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1067">
@@ -14574,7 +14574,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1086">
@@ -14587,7 +14587,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1087">
@@ -14600,7 +14600,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1088">
@@ -14925,7 +14925,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1113">
@@ -14990,7 +14990,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1118">
@@ -15003,7 +15003,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1119">
@@ -15211,7 +15211,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1135">
@@ -15445,7 +15445,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1153">
@@ -15796,7 +15796,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1180">
@@ -16004,7 +16004,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1196">
@@ -16017,7 +16017,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1197">
@@ -16030,7 +16030,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1198">
@@ -16043,7 +16043,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1199">
@@ -16056,7 +16056,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1200">
@@ -16069,7 +16069,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1201">
@@ -16082,7 +16082,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1202">
@@ -16095,7 +16095,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1203">
@@ -16108,7 +16108,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1204">
@@ -16121,7 +16121,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1205">
@@ -16134,7 +16134,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1206">
@@ -16173,7 +16173,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1209">
@@ -16186,7 +16186,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1210">
@@ -16199,7 +16199,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1211">
@@ -16212,7 +16212,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1212">
@@ -16225,7 +16225,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1213">
@@ -16251,7 +16251,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1215">
@@ -16264,7 +16264,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1216">
@@ -16277,7 +16277,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1217">
@@ -16316,7 +16316,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1220">
@@ -16620,7 +16620,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1243">
@@ -16672,7 +16672,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1247">
@@ -16802,7 +16802,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1257">
@@ -16919,7 +16919,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1266">
@@ -16958,7 +16958,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1269">
@@ -16971,7 +16971,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1270">
@@ -17153,7 +17153,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1284">
@@ -17166,7 +17166,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1285">
@@ -17218,7 +17218,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1289">
@@ -17244,7 +17244,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1291">
@@ -17283,7 +17283,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1294">
@@ -17400,7 +17400,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1303">
@@ -17413,7 +17413,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1304">
@@ -17556,7 +17556,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1315">
@@ -17803,7 +17803,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1334">
@@ -17855,7 +17855,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1338">
@@ -17868,7 +17868,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1339">
@@ -17946,7 +17946,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1345">
@@ -18050,7 +18050,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1353">
@@ -18063,7 +18063,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1354">
@@ -18141,7 +18141,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1360">
@@ -18167,7 +18167,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1362">
@@ -18232,7 +18232,7 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1367">
@@ -18388,7 +18388,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1379">
@@ -18414,7 +18414,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1381">
@@ -18466,7 +18466,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1385">
@@ -18518,7 +18518,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1389">
@@ -18692,7 +18692,7 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1402">
@@ -18718,7 +18718,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1404">
@@ -18796,7 +18796,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1410">
@@ -18809,7 +18809,7 @@
     <row r="1411">
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1411">
@@ -18848,7 +18848,7 @@
     <row r="1414">
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1414">
@@ -18887,7 +18887,7 @@
     <row r="1417">
       <c r="B1417" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1417">
@@ -19027,7 +19027,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1427">
@@ -19040,7 +19040,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1428">
@@ -19105,7 +19105,7 @@
     <row r="1433">
       <c r="B1433" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1433">
@@ -19131,7 +19131,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1435">
@@ -19248,7 +19248,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1444">
@@ -19326,7 +19326,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1450">
@@ -19404,7 +19404,7 @@
     <row r="1456">
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1456">
@@ -19430,7 +19430,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1458">
@@ -19534,7 +19534,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1466">
@@ -19586,7 +19586,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1470">
@@ -19599,7 +19599,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1471">
@@ -19612,7 +19612,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1472">
@@ -19625,7 +19625,7 @@
     <row r="1473">
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1473">
@@ -19638,7 +19638,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1474">
@@ -19651,7 +19651,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1475">
@@ -20116,7 +20116,7 @@
     <row r="1510">
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1510">
@@ -20368,7 +20368,7 @@
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1529">
@@ -20789,7 +20789,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1561">
@@ -20885,7 +20885,7 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1568">
@@ -20911,7 +20911,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1570">
@@ -20924,7 +20924,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1571">
@@ -21080,7 +21080,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1583">
@@ -21132,7 +21132,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1587">
@@ -21145,7 +21145,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1588">
@@ -21171,7 +21171,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1590">
@@ -21223,7 +21223,7 @@
     <row r="1594">
       <c r="B1594" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1594">
@@ -21236,7 +21236,7 @@
     <row r="1595">
       <c r="B1595" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1595">
@@ -21288,7 +21288,7 @@
     <row r="1599">
       <c r="B1599" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1599">
@@ -21327,7 +21327,7 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1602">
@@ -21579,7 +21579,7 @@
     <row r="1621">
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1621">
@@ -21631,7 +21631,7 @@
     <row r="1625">
       <c r="B1625" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1625">
@@ -21761,7 +21761,7 @@
     <row r="1635">
       <c r="B1635" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1635">
@@ -21787,7 +21787,7 @@
     <row r="1637">
       <c r="B1637" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1637">
@@ -21839,7 +21839,7 @@
     <row r="1641">
       <c r="B1641" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1641">
@@ -21865,7 +21865,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1643">
@@ -22099,7 +22099,7 @@
     <row r="1661">
       <c r="B1661" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1661">
@@ -22112,7 +22112,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1662">
@@ -22320,7 +22320,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1678">
@@ -22333,7 +22333,7 @@
     <row r="1679">
       <c r="B1679" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1679">
@@ -22385,7 +22385,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1683">
@@ -22398,7 +22398,7 @@
     <row r="1684">
       <c r="B1684" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1684">
@@ -22411,7 +22411,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1685">
@@ -22424,7 +22424,7 @@
     <row r="1686">
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1686">
@@ -22567,7 +22567,7 @@
     <row r="1697">
       <c r="B1697" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1697">
@@ -22593,7 +22593,7 @@
     <row r="1699">
       <c r="B1699" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1699">
@@ -22632,7 +22632,7 @@
     <row r="1702">
       <c r="B1702" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1702">
@@ -22645,7 +22645,7 @@
     <row r="1703">
       <c r="B1703" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1703">
@@ -22697,7 +22697,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1707">
@@ -22723,7 +22723,7 @@
     <row r="1709">
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1709">
@@ -22788,7 +22788,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1714">
@@ -22892,7 +22892,7 @@
     <row r="1722">
       <c r="B1722" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1722">
@@ -22944,7 +22944,7 @@
     <row r="1726">
       <c r="B1726" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1726">
@@ -22957,7 +22957,7 @@
     <row r="1727">
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1727">
@@ -22996,7 +22996,7 @@
     <row r="1730">
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1730">
@@ -23113,7 +23113,7 @@
     <row r="1739">
       <c r="B1739" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1739">
@@ -23126,7 +23126,7 @@
     <row r="1740">
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1740">
@@ -23490,7 +23490,7 @@
     <row r="1768">
       <c r="B1768" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1768">
@@ -23646,7 +23646,7 @@
     <row r="1780">
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1780">
@@ -23789,7 +23789,7 @@
     <row r="1791">
       <c r="B1791" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1791">
@@ -24007,7 +24007,7 @@
     <row r="1807">
       <c r="B1807" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1807">
@@ -24033,7 +24033,7 @@
     <row r="1809">
       <c r="B1809" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1809">
@@ -24059,7 +24059,7 @@
     <row r="1811">
       <c r="B1811" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1811">
@@ -24189,7 +24189,7 @@
     <row r="1821">
       <c r="B1821" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1821">
@@ -24267,7 +24267,7 @@
     <row r="1827">
       <c r="B1827" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1827">
@@ -24332,7 +24332,7 @@
     <row r="1832">
       <c r="B1832" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1832">
@@ -24345,7 +24345,7 @@
     <row r="1833">
       <c r="B1833" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1833">
@@ -24358,7 +24358,7 @@
     <row r="1834">
       <c r="B1834" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1834">
@@ -24501,7 +24501,7 @@
     <row r="1845">
       <c r="B1845" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1845">
@@ -24514,7 +24514,7 @@
     <row r="1846">
       <c r="B1846" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1846">
@@ -24540,7 +24540,7 @@
     <row r="1848">
       <c r="B1848" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1848">
@@ -24579,7 +24579,7 @@
     <row r="1851">
       <c r="B1851" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1851">
@@ -24678,41 +24678,6 @@
       </c>
       <c r="D1858">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1860">
-      <c r="A1860" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1861">
-      <c r="A1861" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1862">
-      <c r="A1862" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1863">
-      <c r="A1863" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1864">
-      <c r="A1864" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
